--- a/config_10.19/game_enter_btn_config.xlsx
+++ b/config_10.19/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="820" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="820" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="386">
   <si>
     <t>id|行号</t>
   </si>
@@ -132,9 +132,6 @@
     <t>left_top</t>
   </si>
   <si>
-    <t>16;31;101#</t>
-  </si>
-  <si>
     <t>left_enter</t>
   </si>
   <si>
@@ -147,13 +144,7 @@
     <t>134#</t>
   </si>
   <si>
-    <t>101#</t>
-  </si>
-  <si>
     <t>128#11;93#</t>
-  </si>
-  <si>
-    <t>16;31;90;101#</t>
   </si>
   <si>
     <t>26;15#</t>
@@ -1420,10 +1411,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>3;116#2#139#8#122#61#140#137#9#117#134#141#138#142#143#</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>40#74#110#130#1</t>
     </r>
@@ -1447,6 +1434,103 @@
         <scheme val="minor"/>
       </rPr>
       <t>#</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_061_xyhl",</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>新游豪礼</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>145;16;31;101#</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>145;101#</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>45;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16;31;90;101#</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>45;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>101#</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3;116#2#139#8#122#61#140#137#9#117#134#141#138#142#143#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>46#</t>
     </r>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1634,7 +1718,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1723,6 +1807,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2126,10 +2213,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2172,7 +2259,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2220,7 +2307,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2263,10 +2350,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2277,7 +2364,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2319,7 +2406,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2357,10 +2444,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2371,7 +2458,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2414,10 +2501,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2461,10 +2548,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2506,7 +2593,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2541,7 +2628,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2549,10 +2636,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2560,10 +2647,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2571,10 +2658,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -2583,10 +2670,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2594,10 +2681,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2605,10 +2692,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2616,10 +2703,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2627,10 +2714,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2645,7 +2732,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2688,7 +2775,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>16</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2696,10 +2783,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2716,10 +2803,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="18" spans="10:10" x14ac:dyDescent="0.2">
@@ -2737,7 +2824,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2757,7 +2844,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2765,10 +2852,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2776,7 +2863,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -2789,7 +2876,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2797,10 +2884,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2808,10 +2895,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2819,10 +2906,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2830,10 +2917,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2880,10 +2967,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2918,10 +3005,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2959,7 +3046,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3012,7 +3099,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3036,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3058,10 +3145,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3096,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -3137,10 +3224,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3181,10 +3268,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3198,13 +3285,13 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F145"/>
+  <dimension ref="A1:F147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E145" sqref="E145"/>
+      <selection pane="bottomRight" activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3220,22 +3307,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3243,7 +3330,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
@@ -3253,7 +3340,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3261,7 +3348,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -3271,7 +3358,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -3279,19 +3366,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E4" s="5">
         <v>3</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -3299,7 +3386,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -3309,7 +3396,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -3317,7 +3404,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -3327,7 +3414,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3335,7 +3422,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -3345,7 +3432,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -3353,7 +3440,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -3363,7 +3450,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -3371,7 +3458,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -3381,7 +3468,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -3389,7 +3476,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -3399,7 +3486,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -3407,7 +3494,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -3417,7 +3504,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -3425,7 +3512,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -3435,7 +3522,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -3443,7 +3530,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -3453,7 +3540,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -3461,7 +3548,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
@@ -3471,7 +3558,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -3479,7 +3566,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C15" s="5">
         <v>0</v>
@@ -3489,7 +3576,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -3497,7 +3584,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C16" s="5">
         <v>0</v>
@@ -3507,7 +3594,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3515,7 +3602,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -3525,7 +3612,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3533,7 +3620,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C18" s="5">
         <v>0</v>
@@ -3543,7 +3630,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -3551,7 +3638,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -3561,7 +3648,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3569,7 +3656,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -3579,7 +3666,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3587,7 +3674,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
@@ -3597,7 +3684,7 @@
         <v>20</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3605,7 +3692,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C22" s="5">
         <v>0</v>
@@ -3615,7 +3702,7 @@
         <v>21</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -3623,7 +3710,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C23" s="5">
         <v>0</v>
@@ -3633,7 +3720,7 @@
         <v>22</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3641,7 +3728,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
@@ -3651,7 +3738,7 @@
         <v>23</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -3659,7 +3746,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C25" s="5">
         <v>0</v>
@@ -3669,7 +3756,7 @@
         <v>24</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -3677,7 +3764,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
@@ -3687,7 +3774,7 @@
         <v>25</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -3695,7 +3782,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C27" s="5">
         <v>1</v>
@@ -3705,7 +3792,7 @@
         <v>26</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -3713,7 +3800,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C28" s="5">
         <v>1</v>
@@ -3723,7 +3810,7 @@
         <v>27</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -3731,7 +3818,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C29" s="5">
         <v>0</v>
@@ -3741,7 +3828,7 @@
         <v>28</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -3749,7 +3836,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
@@ -3759,7 +3846,7 @@
         <v>29</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -3767,7 +3854,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C31" s="5">
         <v>1</v>
@@ -3777,7 +3864,7 @@
         <v>30</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -3785,7 +3872,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C32" s="5">
         <v>0</v>
@@ -3795,7 +3882,7 @@
         <v>31</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -3803,7 +3890,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C33" s="5">
         <v>0</v>
@@ -3813,7 +3900,7 @@
         <v>32</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -3821,7 +3908,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C34" s="5">
         <v>1</v>
@@ -3831,7 +3918,7 @@
         <v>33</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3839,7 +3926,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C35" s="5">
         <v>1</v>
@@ -3849,7 +3936,7 @@
         <v>34</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3857,7 +3944,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C36" s="5">
         <v>1</v>
@@ -3867,7 +3954,7 @@
         <v>35</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3875,7 +3962,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
@@ -3885,7 +3972,7 @@
         <v>36</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -3893,7 +3980,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
@@ -3903,7 +3990,7 @@
         <v>37</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -3911,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C39" s="5">
         <v>1</v>
@@ -3921,7 +4008,7 @@
         <v>38</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -3929,7 +4016,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C40" s="5">
         <v>1</v>
@@ -3939,7 +4026,7 @@
         <v>39</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -3947,7 +4034,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C41" s="5">
         <v>1</v>
@@ -3957,7 +4044,7 @@
         <v>40</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -3965,7 +4052,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3974,7 +4061,7 @@
         <v>41</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -3982,7 +4069,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3991,7 +4078,7 @@
         <v>42</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -3999,7 +4086,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -4008,7 +4095,7 @@
         <v>43</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -4016,7 +4103,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -4025,7 +4112,7 @@
         <v>44</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -4033,7 +4120,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -4042,7 +4129,7 @@
         <v>45</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -4050,7 +4137,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -4059,7 +4146,7 @@
         <v>46</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -4067,7 +4154,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4076,7 +4163,7 @@
         <v>47</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -4084,7 +4171,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4093,7 +4180,7 @@
         <v>48</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -4101,7 +4188,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -4110,7 +4197,7 @@
         <v>49</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -4118,7 +4205,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4127,7 +4214,7 @@
         <v>50</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -4135,7 +4222,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4144,7 +4231,7 @@
         <v>51</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -4152,7 +4239,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4161,7 +4248,7 @@
         <v>52</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -4169,7 +4256,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
@@ -4179,7 +4266,7 @@
         <v>53</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -4187,7 +4274,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -4196,7 +4283,7 @@
         <v>54</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -4204,7 +4291,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4213,7 +4300,7 @@
         <v>55</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -4221,7 +4308,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4230,7 +4317,7 @@
         <v>56</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -4238,7 +4325,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4247,7 +4334,7 @@
         <v>57</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -4255,7 +4342,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -4264,7 +4351,7 @@
         <v>58</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -4272,7 +4359,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -4281,7 +4368,7 @@
         <v>59</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -4289,7 +4376,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4298,7 +4385,7 @@
         <v>60</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -4306,7 +4393,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4315,7 +4402,7 @@
         <v>61</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -4323,7 +4410,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4332,7 +4419,7 @@
         <v>62</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -4340,7 +4427,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4349,7 +4436,7 @@
         <v>63</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -4357,7 +4444,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4366,7 +4453,7 @@
         <v>64</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -4374,7 +4461,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4383,7 +4470,7 @@
         <v>65</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -4391,7 +4478,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4400,7 +4487,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -4408,7 +4495,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4417,7 +4504,7 @@
         <v>67</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -4425,7 +4512,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4434,7 +4521,7 @@
         <v>68</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -4442,7 +4529,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4451,7 +4538,7 @@
         <v>69</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -4459,7 +4546,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4468,7 +4555,7 @@
         <v>70</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -4476,7 +4563,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4485,7 +4572,7 @@
         <v>71</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -4493,7 +4580,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4502,7 +4589,7 @@
         <v>72</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -4510,7 +4597,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4519,7 +4606,7 @@
         <v>73</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -4527,7 +4614,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4536,7 +4623,7 @@
         <v>74</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -4544,7 +4631,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4553,7 +4640,7 @@
         <v>75</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -4561,7 +4648,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4570,7 +4657,7 @@
         <v>76</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -4578,7 +4665,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4587,7 +4674,7 @@
         <v>77</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -4595,7 +4682,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4604,7 +4691,7 @@
         <v>78</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -4612,7 +4699,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4621,7 +4708,7 @@
         <v>79</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -4629,7 +4716,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4638,7 +4725,7 @@
         <v>80</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -4646,7 +4733,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -4655,7 +4742,7 @@
         <v>81</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -4663,7 +4750,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4672,7 +4759,7 @@
         <v>82</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -4680,7 +4767,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4689,7 +4776,7 @@
         <v>83</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -4697,7 +4784,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4706,7 +4793,7 @@
         <v>84</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -4714,7 +4801,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4723,7 +4810,7 @@
         <v>85</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -4731,7 +4818,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4740,7 +4827,7 @@
         <v>86</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -4748,19 +4835,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -4768,7 +4855,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4777,7 +4864,7 @@
         <v>88</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4785,7 +4872,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4794,7 +4881,7 @@
         <v>89</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4802,7 +4889,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4811,7 +4898,7 @@
         <v>90</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4819,7 +4906,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4828,7 +4915,7 @@
         <v>91</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4836,7 +4923,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4845,7 +4932,7 @@
         <v>92</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4853,7 +4940,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -4862,7 +4949,7 @@
         <v>93</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4870,7 +4957,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4879,7 +4966,7 @@
         <v>94</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -4887,7 +4974,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4896,7 +4983,7 @@
         <v>95</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -4904,7 +4991,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4913,7 +5000,7 @@
         <v>96</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -4921,7 +5008,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4931,7 +5018,7 @@
         <v>97</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -4939,7 +5026,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4948,7 +5035,7 @@
         <v>98</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -4956,7 +5043,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4965,7 +5052,7 @@
         <v>99</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -4973,7 +5060,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4982,7 +5069,7 @@
         <v>100</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -4990,19 +5077,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E102">
         <v>101</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5010,7 +5097,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
@@ -5019,7 +5106,7 @@
         <v>102</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -5027,7 +5114,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -5036,7 +5123,7 @@
         <v>103</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5044,7 +5131,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C105" s="2">
         <v>1</v>
@@ -5053,7 +5140,7 @@
         <v>104</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -5061,19 +5148,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -5081,7 +5168,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -5090,7 +5177,7 @@
         <v>106</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -5098,7 +5185,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -5107,7 +5194,7 @@
         <v>107</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5115,7 +5202,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -5124,7 +5211,7 @@
         <v>108</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -5132,7 +5219,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5141,7 +5228,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -5149,7 +5236,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5158,7 +5245,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5166,7 +5253,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5175,7 +5262,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5183,7 +5270,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5192,7 +5279,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5200,7 +5287,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5209,7 +5296,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5217,7 +5304,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5226,7 +5313,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5234,19 +5321,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5254,19 +5341,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5274,7 +5361,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5283,7 +5370,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -5291,7 +5378,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5300,7 +5387,7 @@
         <v>118</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -5308,7 +5395,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5317,7 +5404,7 @@
         <v>119</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -5325,7 +5412,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5334,7 +5421,7 @@
         <v>120</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -5342,7 +5429,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5351,7 +5438,7 @@
         <v>121</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -5359,7 +5446,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5368,7 +5455,7 @@
         <v>122</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -5376,7 +5463,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5385,7 +5472,7 @@
         <v>123</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -5393,7 +5480,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5402,7 +5489,7 @@
         <v>124</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -5410,7 +5497,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -5419,7 +5506,7 @@
         <v>125</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -5427,7 +5514,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -5436,7 +5523,7 @@
         <v>126</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -5444,7 +5531,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -5453,7 +5540,7 @@
         <v>127</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -5461,19 +5548,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E129">
         <v>128</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -5481,19 +5568,19 @@
         <v>129</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E130">
         <v>129</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -5501,19 +5588,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C131" s="5">
         <v>1</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E131" s="5">
         <v>130</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -5521,19 +5608,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C132" s="5">
         <v>1</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E132" s="5">
         <v>131</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -5541,19 +5628,19 @@
         <v>132</v>
       </c>
       <c r="B133" s="28" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C133" s="5">
         <v>1</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E133" s="5">
         <v>132</v>
       </c>
       <c r="F133" s="29" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -5561,7 +5648,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C134" s="5">
         <v>1</v>
@@ -5570,7 +5657,7 @@
         <v>133</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5578,19 +5665,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E135">
         <v>134</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -5598,19 +5685,19 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E136">
         <v>135</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -5618,19 +5705,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E137">
         <v>136</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5638,19 +5725,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E138">
         <v>137</v>
       </c>
       <c r="F138" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5658,19 +5745,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E139">
         <v>138</v>
       </c>
       <c r="F139" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -5678,7 +5765,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -5688,7 +5775,7 @@
         <v>139</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5696,19 +5783,19 @@
         <v>140</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141" s="29" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E141">
         <v>140</v>
       </c>
       <c r="F141" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5716,19 +5803,19 @@
         <v>141</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E142">
         <v>141</v>
       </c>
       <c r="F142" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5736,19 +5823,19 @@
         <v>142</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E143">
         <v>142</v>
       </c>
       <c r="F143" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5756,19 +5843,19 @@
         <v>143</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E144">
         <v>143</v>
       </c>
       <c r="F144" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5776,7 +5863,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -5785,6 +5872,46 @@
         <v>144</v>
       </c>
       <c r="F145" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="E146">
+        <v>145</v>
+      </c>
+      <c r="F146" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147" t="s">
+        <v>318</v>
+      </c>
+      <c r="E147">
+        <v>146</v>
+      </c>
+      <c r="F147" t="s">
         <v>380</v>
       </c>
     </row>
@@ -5800,7 +5927,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5839,7 +5966,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>21</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5847,7 +5974,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="19"/>
     </row>
@@ -5865,15 +5992,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5882,7 +6010,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5914,7 +6042,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5924,8 +6052,8 @@
       <c r="B3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>23</v>
+      <c r="C3" s="30" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5933,10 +6061,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5953,10 +6081,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -6038,7 +6166,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -6081,10 +6209,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6092,10 +6220,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3"/>
     </row>
@@ -6140,10 +6268,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -6151,7 +6279,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C3" s="19"/>
     </row>
@@ -6160,10 +6288,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -6171,10 +6299,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -6188,8 +6316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="C147" sqref="C147"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6213,10 +6341,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -6224,10 +6352,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>381</v>
+        <v>22</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>385</v>
       </c>
       <c r="D2" s="5">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -6243,10 +6371,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D3" s="5">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -6266,10 +6394,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D4" s="5">
         <f>'all_enter|所有按钮入口'!E4</f>
@@ -6285,10 +6413,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D5" s="5">
         <f>'all_enter|所有按钮入口'!E5</f>
@@ -6305,10 +6433,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D6" s="5">
         <f>'all_enter|所有按钮入口'!E6</f>
@@ -6324,10 +6452,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D7" s="5">
         <f>'all_enter|所有按钮入口'!E7</f>
@@ -6343,10 +6471,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D8" s="5">
         <f>'all_enter|所有按钮入口'!E8</f>
@@ -6362,10 +6490,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D9" s="5">
         <f>'all_enter|所有按钮入口'!E9</f>

--- a/config_10.19/game_enter_btn_config.xlsx
+++ b/config_10.19/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="820" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="820" firstSheet="21" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -1356,23 +1356,6 @@
   </si>
   <si>
     <r>
-      <t>"act_ty_gifts","gift_khlb</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","enter",</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>103#</t>
     </r>
     <r>
@@ -1532,6 +1515,10 @@
       </rPr>
       <t>46#</t>
     </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_gifts","gift_hflb","enter",</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -2695,7 +2682,7 @@
         <v>65</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2775,7 +2762,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3126,7 +3113,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3227,7 +3214,7 @@
         <v>82</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3287,11 +3274,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B150" sqref="B150"/>
+      <selection pane="bottomRight" activeCell="G150" sqref="G150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5588,7 +5575,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C131" s="5">
         <v>1</v>
@@ -5628,7 +5615,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="28" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="C133" s="5">
         <v>1</v>
@@ -5863,7 +5850,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -5872,7 +5859,7 @@
         <v>144</v>
       </c>
       <c r="F145" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5880,7 +5867,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -5892,7 +5879,7 @@
         <v>145</v>
       </c>
       <c r="F146" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5900,7 +5887,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -5912,7 +5899,7 @@
         <v>146</v>
       </c>
       <c r="F147" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -5966,7 +5953,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -6053,7 +6040,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -6316,7 +6303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -6355,7 +6342,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D2" s="5">
         <f>'all_enter|所有按钮入口'!E2</f>

--- a/config_10.19/game_enter_btn_config.xlsx
+++ b/config_10.19/game_enter_btn_config.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="385">
   <si>
     <t>id|行号</t>
   </si>
@@ -1332,10 +1332,6 @@
   </si>
   <si>
     <t>活动栏礼包，修改第二个参数</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_notcjj</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -2671,7 +2667,7 @@
         <v>64</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2682,7 +2678,7 @@
         <v>65</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2762,7 +2758,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3113,7 +3109,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3173,7 +3169,7 @@
         <v>36</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -3214,7 +3210,7 @@
         <v>82</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3278,7 +3274,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G150" sqref="G150"/>
+      <selection pane="bottomRight" activeCell="I146" sqref="I146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5575,7 +5571,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C131" s="5">
         <v>1</v>
@@ -5615,14 +5611,12 @@
         <v>132</v>
       </c>
       <c r="B133" s="28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C133" s="5">
         <v>1</v>
       </c>
-      <c r="D133" s="5" t="s">
-        <v>370</v>
-      </c>
+      <c r="D133" s="5"/>
       <c r="E133" s="5">
         <v>132</v>
       </c>
@@ -5850,7 +5844,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -5859,7 +5853,7 @@
         <v>144</v>
       </c>
       <c r="F145" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5867,7 +5861,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -5879,7 +5873,7 @@
         <v>145</v>
       </c>
       <c r="F146" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5887,7 +5881,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -5899,7 +5893,7 @@
         <v>146</v>
       </c>
       <c r="F147" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -5953,7 +5947,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -6040,7 +6034,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -6342,7 +6336,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D2" s="5">
         <f>'all_enter|所有按钮入口'!E2</f>
